--- a/spark_running_result/spark.xlsx
+++ b/spark_running_result/spark.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EABC2-5AD2-394C-AFB1-1BB8D33B4D0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADCC97A-C8B3-E242-B352-475432BF03EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="520" windowWidth="28040" windowHeight="16420" xr2:uid="{4F598A7F-36E9-7748-BC18-A200B942828F}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{4F598A7F-36E9-7748-BC18-A200B942828F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
   <si>
     <t>instance</t>
   </si>
@@ -74,12 +75,27 @@
   <si>
     <t>execution time - Job 1</t>
   </si>
+  <si>
+    <t>g3.4xlarge</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Number of Cores (threads per executor)</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +118,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,10 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC903D46-406C-AD4B-A5AF-997AB9253F34}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -535,7 +559,7 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3">
@@ -569,7 +593,7 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4">
@@ -603,7 +627,7 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5">
@@ -613,7 +637,7 @@
         <v>27.571182</v>
       </c>
       <c r="H5">
-        <f>F5+G5</f>
+        <f t="shared" ref="H5:H11" si="1">F5+G5</f>
         <v>70.952876000000003</v>
       </c>
       <c r="I5">
@@ -637,7 +661,7 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6">
@@ -647,7 +671,7 @@
         <v>24.982804999999999</v>
       </c>
       <c r="H6">
-        <f>F6+G6</f>
+        <f t="shared" si="1"/>
         <v>56.860421000000002</v>
       </c>
       <c r="I6">
@@ -671,7 +695,7 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7">
@@ -681,7 +705,7 @@
         <v>26.703330999999999</v>
       </c>
       <c r="H7">
-        <f>F7+G7</f>
+        <f t="shared" si="1"/>
         <v>59.911082</v>
       </c>
       <c r="I7">
@@ -705,7 +729,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>4</v>
       </c>
       <c r="F8">
@@ -715,7 +739,7 @@
         <v>27.483233999999999</v>
       </c>
       <c r="H8">
-        <f>F8+G8</f>
+        <f t="shared" si="1"/>
         <v>71.630695000000003</v>
       </c>
       <c r="I8">
@@ -739,7 +763,7 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9">
@@ -749,7 +773,7 @@
         <v>26.814587</v>
       </c>
       <c r="H9">
-        <f>F9+G9</f>
+        <f t="shared" si="1"/>
         <v>57.822069999999997</v>
       </c>
       <c r="I9">
@@ -773,7 +797,7 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
       <c r="F10">
@@ -783,7 +807,7 @@
         <v>28.663032000000001</v>
       </c>
       <c r="H10">
-        <f>F10+G10</f>
+        <f t="shared" si="1"/>
         <v>61.174679000000005</v>
       </c>
       <c r="I10">
@@ -807,7 +831,7 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
       <c r="F11">
@@ -817,7 +841,7 @@
         <v>28.146272</v>
       </c>
       <c r="H11">
-        <f>F11+G11</f>
+        <f t="shared" si="1"/>
         <v>69.283400999999998</v>
       </c>
       <c r="I11">
@@ -828,9 +852,852 @@
         <v>17535156</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>39.642083</v>
+      </c>
+      <c r="G12">
+        <v>39.393329999999999</v>
+      </c>
+      <c r="H12">
+        <f>F12+G12</f>
+        <v>79.035413000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>22.173776</v>
+      </c>
+      <c r="G13">
+        <v>21.679987000000001</v>
+      </c>
+      <c r="H13">
+        <f>F13+G13</f>
+        <v>43.853763000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>11.677121</v>
+      </c>
+      <c r="G14">
+        <v>11.155805000000001</v>
+      </c>
+      <c r="H14">
+        <f>F14+G14</f>
+        <v>22.832926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>8.8075589999999995</v>
+      </c>
+      <c r="G15">
+        <v>8.1994930000000004</v>
+      </c>
+      <c r="H15">
+        <f>F15+G15</f>
+        <v>17.007052000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>6.7881410000000004</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6.3076309999999998</v>
+      </c>
+      <c r="H16">
+        <f>F16+G16</f>
+        <v>13.095772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F0F13D-AABC-C047-BC4D-6E4DEEFC063E}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="9" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>40.627743000000002</v>
+      </c>
+      <c r="G2">
+        <v>40.034216000000001</v>
+      </c>
+      <c r="H2">
+        <f>F2+G2</f>
+        <v>80.661958999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>24.781344000000001</v>
+      </c>
+      <c r="G3">
+        <v>23.992820999999999</v>
+      </c>
+      <c r="H3">
+        <f>F3+G3</f>
+        <v>48.774164999999996</v>
+      </c>
+      <c r="I3">
+        <f>H2/H3</f>
+        <v>1.6537845189148805</v>
+      </c>
+      <c r="J3" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>23.923233</v>
+      </c>
+      <c r="G4">
+        <v>22.676687000000001</v>
+      </c>
+      <c r="H4">
+        <f>F4+G4</f>
+        <v>46.599919999999997</v>
+      </c>
+      <c r="I4">
+        <f>H2/H4</f>
+        <v>1.7309462977618846</v>
+      </c>
+      <c r="J4" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>39.642083</v>
+      </c>
+      <c r="G5">
+        <v>39.393329999999999</v>
+      </c>
+      <c r="H5">
+        <f>F5+G5</f>
+        <v>79.035413000000005</v>
+      </c>
+      <c r="I5">
+        <f>H2/H5</f>
+        <v>1.0205799645786628</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>22.173776</v>
+      </c>
+      <c r="G6">
+        <v>21.679987000000001</v>
+      </c>
+      <c r="H6">
+        <f>F6+G6</f>
+        <v>43.853763000000001</v>
+      </c>
+      <c r="I6">
+        <f>H2/H6</f>
+        <v>1.8393395111840229</v>
+      </c>
+      <c r="J6" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>11.677121</v>
+      </c>
+      <c r="G7">
+        <v>11.155805000000001</v>
+      </c>
+      <c r="H7">
+        <f>F7+G7</f>
+        <v>22.832926</v>
+      </c>
+      <c r="I7">
+        <f>H2/H7</f>
+        <v>3.5327035615146301</v>
+      </c>
+      <c r="J7" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8.8075589999999995</v>
+      </c>
+      <c r="G8">
+        <v>8.1994930000000004</v>
+      </c>
+      <c r="H8">
+        <f>F8+G8</f>
+        <v>17.007052000000002</v>
+      </c>
+      <c r="I8">
+        <f>H2/H8</f>
+        <v>4.7428536703480404</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>6.7881410000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.3076309999999998</v>
+      </c>
+      <c r="H9">
+        <f>F9+G9</f>
+        <v>13.095772</v>
+      </c>
+      <c r="I9">
+        <f>H2/H9</f>
+        <v>6.1593893815500147</v>
+      </c>
+      <c r="J9" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>46.135821999999997</v>
+      </c>
+      <c r="G10">
+        <v>39.726582000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H18" si="0">F10+G10</f>
+        <v>85.862403999999998</v>
+      </c>
+      <c r="I10">
+        <f>H2/H10</f>
+        <v>0.93943280460677525</v>
+      </c>
+      <c r="J10" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>32.580215000000003</v>
+      </c>
+      <c r="G11">
+        <v>26.086062999999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>58.666278000000005</v>
+      </c>
+      <c r="I11">
+        <f>H2/H11</f>
+        <v>1.374928864585546</v>
+      </c>
+      <c r="J11" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>43.381694000000003</v>
+      </c>
+      <c r="G12">
+        <v>27.571182</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>70.952876000000003</v>
+      </c>
+      <c r="I12">
+        <f>H2/H12</f>
+        <v>1.1368384700854126</v>
+      </c>
+      <c r="J12" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>31.877616</v>
+      </c>
+      <c r="G13">
+        <v>24.982804999999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>56.860421000000002</v>
+      </c>
+      <c r="I13">
+        <f>H2/H13</f>
+        <v>1.4185958806038386</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>33.207751000000002</v>
+      </c>
+      <c r="G14">
+        <v>26.703330999999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>59.911082</v>
+      </c>
+      <c r="I14">
+        <f>H2/H14</f>
+        <v>1.3463612458209318</v>
+      </c>
+      <c r="J14" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>44.147461</v>
+      </c>
+      <c r="G15">
+        <v>27.483233999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>71.630695000000003</v>
+      </c>
+      <c r="I15">
+        <f>H2/H15</f>
+        <v>1.1260809210353186</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>31.007483000000001</v>
+      </c>
+      <c r="G16">
+        <v>26.814587</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>57.822069999999997</v>
+      </c>
+      <c r="I16">
+        <f>H2/H16</f>
+        <v>1.3950029634013448</v>
+      </c>
+      <c r="J16" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>32.511647000000004</v>
+      </c>
+      <c r="G17">
+        <v>28.663032000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>61.174679000000005</v>
+      </c>
+      <c r="I17">
+        <f>H2/H17</f>
+        <v>1.3185514058847778</v>
+      </c>
+      <c r="J17" s="1">
+        <v>17535156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>41.137129000000002</v>
+      </c>
+      <c r="G18">
+        <v>28.146272</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>69.283400999999998</v>
+      </c>
+      <c r="I18">
+        <f>H2/H18</f>
+        <v>1.1642320936294683</v>
+      </c>
+      <c r="J18" s="1">
+        <v>17535156</v>
       </c>
     </row>
   </sheetData>
